--- a/sofaplayer/Serie_A/Genoa_stats.xlsx
+++ b/sofaplayer/Serie_A/Genoa_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>930191</v>
       </c>
       <c r="E2" t="n">
-        <v>6.5958333333333</v>
+        <v>6.556</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>1464</v>
+        <v>1536</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2418</v>
+        <v>6.4389</v>
       </c>
       <c r="L2" t="n">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="M2" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" t="n">
         <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>13.953488372093</v>
+        <v>13.04347826087</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1101,34 +1101,34 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.56983722</v>
+        <v>0.59735392</v>
       </c>
       <c r="AB2" t="n">
-        <v>608</v>
+        <v>649</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AF2" t="n">
-        <v>69.677419354839</v>
+        <v>70.245398773006</v>
       </c>
       <c r="AG2" t="n">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="AH2" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI2" t="n">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AJ2" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="n">
         <v>4</v>
@@ -1152,13 +1152,13 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AS2" t="n">
         <v>8</v>
       </c>
       <c r="AT2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -1173,40 +1173,40 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
-        <v>40.625</v>
+        <v>38.888888888889</v>
       </c>
       <c r="BA2" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="BB2" t="n">
-        <v>36.363636363636</v>
+        <v>35.555555555556</v>
       </c>
       <c r="BC2" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="BD2" t="n">
-        <v>38.571428571429</v>
+        <v>37.333333333333</v>
       </c>
       <c r="BE2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BF2" t="n">
-        <v>33.628318584071</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG2" t="n">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="BH2" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BI2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2" t="n">
         <v>1</v>
@@ -1227,22 +1227,22 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>158.3</v>
+        <v>163.9</v>
       </c>
       <c r="BR2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS2" t="n">
         <v>7</v>
       </c>
       <c r="BT2" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BW2" t="n">
         <v>1</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CB2" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CC2" t="n">
         <v>11</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CS2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="CT2" t="n">
         <v>11</v>
       </c>
       <c r="CU2" t="n">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="CV2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DG2" t="n">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>1093695</v>
       </c>
       <c r="E3" t="n">
-        <v>6.8304347826087</v>
+        <v>6.8125</v>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>1483</v>
+        <v>1543</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -1409,22 +1409,22 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4718</v>
+        <v>3.6439</v>
       </c>
       <c r="L3" t="n">
-        <v>494.33333333333</v>
+        <v>514.33333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O3" t="n">
         <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>7.5</v>
+        <v>6.8181818181818</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1457,34 +1457,34 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.566085</v>
+        <v>1.738713</v>
       </c>
       <c r="AB3" t="n">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="AC3" t="n">
         <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AF3" t="n">
-        <v>65.637065637066</v>
+        <v>64.905660377358</v>
       </c>
       <c r="AG3" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AH3" t="n">
         <v>52</v>
       </c>
       <c r="AI3" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK3" t="n">
         <v>8</v>
@@ -1493,16 +1493,16 @@
         <v>34.782608695652</v>
       </c>
       <c r="AM3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN3" t="n">
-        <v>21.276595744681</v>
+        <v>21.153846153846</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -1517,7 +1517,7 @@
         <v>23</v>
       </c>
       <c r="AU3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1535,25 +1535,25 @@
         <v>34.883720930233</v>
       </c>
       <c r="BA3" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BB3" t="n">
-        <v>45.9375</v>
+        <v>45.705521472393</v>
       </c>
       <c r="BC3" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BD3" t="n">
-        <v>45</v>
+        <v>45.045045045045</v>
       </c>
       <c r="BE3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BF3" t="n">
-        <v>48</v>
+        <v>47.115384615385</v>
       </c>
       <c r="BG3" t="n">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="BH3" t="n">
         <v>27</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>157.1</v>
+        <v>163.5</v>
       </c>
       <c r="BR3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS3" t="n">
         <v>4</v>
       </c>
       <c r="BT3" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1610,16 +1610,16 @@
         <v>1</v>
       </c>
       <c r="BZ3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CA3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="CB3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CC3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CD3" t="n">
         <v>7</v>
@@ -1664,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CS3" t="n">
         <v>86</v>
       </c>
       <c r="CT3" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="CU3" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="CV3" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>23</v>
       </c>
       <c r="DA3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DB3" t="n">
-        <v>80.95238095238101</v>
+        <v>81.818181818182</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>74</v>
       </c>
       <c r="DG3" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -2103,175 +2103,175 @@
         <v>888219</v>
       </c>
       <c r="E5" t="n">
-        <v>6.9</v>
+        <v>6.91</v>
       </c>
       <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>278</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="L5" t="n">
+        <v>278</v>
+      </c>
+      <c r="M5" t="n">
         <v>9</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>206</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.2657</v>
-      </c>
-      <c r="L5" t="n">
-        <v>206</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11.111111111111</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.16048994</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>224</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>92</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>82.142857142857</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>112</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>52</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>84.615384615385</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="n">
         <v>6</v>
       </c>
-      <c r="N5" t="n">
+      <c r="AQ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU5" t="n">
         <v>2</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>16.666666666667</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.09685323999999999</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>157</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>59</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>78.666666666667</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
         <v>15</v>
       </c>
-      <c r="AI5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ5" t="n">
+      <c r="AZ5" t="n">
+        <v>55.555555555556</v>
+      </c>
+      <c r="BA5" t="n">
         <v>36</v>
       </c>
-      <c r="AK5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>88.888888888889</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT5" t="n">
+      <c r="BB5" t="n">
+        <v>55.384615384615</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>58.823529411765</v>
+      </c>
+      <c r="BE5" t="n">
         <v>6</v>
       </c>
-      <c r="AU5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>61.904761904762</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>56.862745098039</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>24</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>5</v>
-      </c>
       <c r="BF5" t="n">
-        <v>45.454545454545</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BG5" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="BH5" t="n">
         <v>5</v>
       </c>
       <c r="BI5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
@@ -2295,46 +2295,46 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>62.1</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="BR5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BS5" t="n">
         <v>1</v>
       </c>
       <c r="BT5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA5" t="n">
         <v>3</v>
       </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>2</v>
-      </c>
       <c r="CB5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CD5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
@@ -2376,19 +2376,19 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS5" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="CT5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CU5" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="CV5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="DA5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DB5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="DG5" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>309156</v>
       </c>
       <c r="E6" t="n">
-        <v>6.6526315789474</v>
+        <v>6.65</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2477,13 +2477,13 @@
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1.3391</v>
+        <v>1.5658</v>
       </c>
       <c r="L6" t="n">
-        <v>278.5</v>
+        <v>293.5</v>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N6" t="n">
         <v>5</v>
@@ -2492,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>13.333333333333</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -2525,34 +2525,34 @@
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.71222697</v>
+        <v>0.75421017</v>
       </c>
       <c r="AB6" t="n">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AC6" t="n">
         <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AF6" t="n">
-        <v>70</v>
+        <v>71.134020618557</v>
       </c>
       <c r="AG6" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
@@ -2576,7 +2576,7 @@
         <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS6" t="n">
         <v>2</v>
@@ -2585,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ6" t="n">
-        <v>40</v>
+        <v>41.176470588235</v>
       </c>
       <c r="BA6" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BB6" t="n">
-        <v>50</v>
+        <v>49.450549450549</v>
       </c>
       <c r="BC6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD6" t="n">
-        <v>48.214285714286</v>
+        <v>46.666666666667</v>
       </c>
       <c r="BE6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BF6" t="n">
-        <v>53.333333333333</v>
+        <v>54.838709677419</v>
       </c>
       <c r="BG6" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="BH6" t="n">
         <v>9</v>
@@ -2651,22 +2651,22 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>126.4</v>
+        <v>133</v>
       </c>
       <c r="BR6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS6" t="n">
         <v>3</v>
       </c>
       <c r="BT6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="CA6" t="n">
         <v>4</v>
       </c>
       <c r="CB6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CC6" t="n">
         <v>5</v>
@@ -2732,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CT6" t="n">
         <v>5</v>
       </c>
       <c r="CU6" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CV6" t="n">
         <v>14</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="DG6" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>1613917</v>
       </c>
       <c r="E7" t="n">
-        <v>6.4888888888889</v>
+        <v>6.4789473684211</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2833,13 +2833,13 @@
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8416</v>
+        <v>1.8855</v>
       </c>
       <c r="L7" t="n">
-        <v>237.5</v>
+        <v>246.5</v>
       </c>
       <c r="M7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N7" t="n">
         <v>3</v>
@@ -2848,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>16.666666666667</v>
+        <v>15.384615384615</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.09519276</v>
+        <v>0.09598295</v>
       </c>
       <c r="AB7" t="n">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -2893,22 +2893,22 @@
         <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF7" t="n">
-        <v>54.444444444444</v>
+        <v>55.31914893617</v>
       </c>
       <c r="AG7" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>1</v>
@@ -2941,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -2959,28 +2959,28 @@
         <v>33.333333333333</v>
       </c>
       <c r="BA7" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BB7" t="n">
-        <v>37.5</v>
+        <v>37.755102040816</v>
       </c>
       <c r="BC7" t="n">
         <v>24</v>
       </c>
       <c r="BD7" t="n">
-        <v>40.677966101695</v>
+        <v>40</v>
       </c>
       <c r="BE7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF7" t="n">
-        <v>32.432432432432</v>
+        <v>34.210526315789</v>
       </c>
       <c r="BG7" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="BH7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI7" t="n">
         <v>14</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>116.8</v>
+        <v>123.1</v>
       </c>
       <c r="BR7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS7" t="n">
         <v>2</v>
       </c>
       <c r="BT7" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CA7" t="n">
         <v>2</v>
@@ -3094,10 +3094,10 @@
         <v>12</v>
       </c>
       <c r="CT7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CU7" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CV7" t="n">
         <v>25</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="DG7" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>195850</v>
       </c>
       <c r="E8" t="n">
-        <v>6.8681818181818</v>
+        <v>6.8739130434783</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
-        <v>1573</v>
+        <v>1663</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -3192,7 +3192,7 @@
         <v>3.3686</v>
       </c>
       <c r="L8" t="n">
-        <v>314.6</v>
+        <v>332.6</v>
       </c>
       <c r="M8" t="n">
         <v>37</v>
@@ -3237,64 +3237,64 @@
         <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.24049352</v>
+        <v>2.30530612</v>
       </c>
       <c r="AB8" t="n">
-        <v>1054</v>
+        <v>1131</v>
       </c>
       <c r="AC8" t="n">
         <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE8" t="n">
-        <v>635</v>
+        <v>693</v>
       </c>
       <c r="AF8" t="n">
-        <v>81.306017925736</v>
+        <v>81.72169811320801</v>
       </c>
       <c r="AG8" t="n">
-        <v>781</v>
+        <v>848</v>
       </c>
       <c r="AH8" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="AI8" t="n">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="AJ8" t="n">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="AK8" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL8" t="n">
-        <v>60.63829787234</v>
+        <v>61.052631578947</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>33.333333333333</v>
+        <v>31.428571428571</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ8" t="n">
         <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AS8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -3309,37 +3309,37 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>50</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BA8" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="BB8" t="n">
-        <v>43.67816091954</v>
+        <v>44.329896907216</v>
       </c>
       <c r="BC8" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="BD8" t="n">
-        <v>43.089430894309</v>
+        <v>43.609022556391</v>
       </c>
       <c r="BE8" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="BF8" t="n">
-        <v>45.098039215686</v>
+        <v>45.901639344262</v>
       </c>
       <c r="BG8" t="n">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="BH8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BI8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BJ8" t="n">
         <v>1</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO8" t="n">
         <v>25</v>
@@ -3363,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>151.1</v>
+        <v>158.1</v>
       </c>
       <c r="BR8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS8" t="n">
         <v>8</v>
       </c>
       <c r="BT8" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>33</v>
       </c>
       <c r="CB8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CC8" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="CD8" t="n">
         <v>33</v>
@@ -3444,20 +3444,20 @@
         <v>16.666666666667</v>
       </c>
       <c r="CR8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CS8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CT8" t="n">
+        <v>35</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>108</v>
+      </c>
+      <c r="CV8" t="n">
         <v>33</v>
       </c>
-      <c r="CU8" t="n">
-        <v>98</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>28</v>
-      </c>
       <c r="CW8" t="n">
         <v>0</v>
       </c>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="DA8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DB8" t="n">
-        <v>77.272727272727</v>
+        <v>75</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="DG8" t="n">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>1012172</v>
       </c>
       <c r="E9" t="n">
-        <v>6.66</v>
+        <v>6.6818181818182</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1.5189</v>
       </c>
       <c r="L9" t="n">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="M9" t="n">
         <v>11</v>
@@ -3593,37 +3593,37 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.86518921</v>
+        <v>1.14360221</v>
       </c>
       <c r="AB9" t="n">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="n">
-        <v>85.92592592592599</v>
+        <v>86.842105263158</v>
       </c>
       <c r="AG9" t="n">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL9" t="n">
         <v>50</v>
@@ -3632,7 +3632,7 @@
         <v>4</v>
       </c>
       <c r="AN9" t="n">
-        <v>44.444444444444</v>
+        <v>36.363636363636</v>
       </c>
       <c r="AO9" t="n">
         <v>3</v>
@@ -3644,7 +3644,7 @@
         <v>4</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AS9" t="n">
         <v>1</v>
@@ -3689,7 +3689,7 @@
         <v>12.5</v>
       </c>
       <c r="BG9" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="BH9" t="n">
         <v>8</v>
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>66.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="BR9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS9" t="n">
         <v>1</v>
       </c>
       <c r="BT9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>7</v>
       </c>
       <c r="CC9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CD9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CS9" t="n">
         <v>5</v>
       </c>
       <c r="CT9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CU9" t="n">
         <v>26</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DA9" t="n">
         <v>1</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="DG9" t="n">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>918440</v>
       </c>
       <c r="E10" t="n">
-        <v>6.8782608695652</v>
+        <v>6.9</v>
       </c>
       <c r="F10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G10" t="n">
         <v>23</v>
       </c>
-      <c r="G10" t="n">
-        <v>22</v>
-      </c>
       <c r="H10" t="n">
-        <v>1933</v>
+        <v>2022</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0.3966</v>
       </c>
       <c r="L10" t="n">
-        <v>1933</v>
+        <v>2022</v>
       </c>
       <c r="M10" t="n">
         <v>8</v>
@@ -3949,40 +3949,40 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.60298425</v>
+        <v>0.68638045</v>
       </c>
       <c r="AB10" t="n">
-        <v>1078</v>
+        <v>1134</v>
       </c>
       <c r="AC10" t="n">
         <v>1</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>660</v>
+        <v>699</v>
       </c>
       <c r="AF10" t="n">
-        <v>86.38743455497401</v>
+        <v>86.832298136646</v>
       </c>
       <c r="AG10" t="n">
-        <v>764</v>
+        <v>805</v>
       </c>
       <c r="AH10" t="n">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="AI10" t="n">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="AJ10" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>42.105263157895</v>
+        <v>42.372881355932</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -3994,19 +3994,19 @@
         <v>28</v>
       </c>
       <c r="AP10" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AQ10" t="n">
         <v>14</v>
       </c>
       <c r="AR10" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
         <v>16</v>
       </c>
       <c r="AT10" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AU10" t="n">
         <v>1</v>
@@ -4027,31 +4027,31 @@
         <v>62.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="BB10" t="n">
-        <v>61.170212765957</v>
+        <v>60.913705583756</v>
       </c>
       <c r="BC10" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="BD10" t="n">
-        <v>62.913907284768</v>
+        <v>63.461538461538</v>
       </c>
       <c r="BE10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF10" t="n">
-        <v>54.054054054054</v>
+        <v>51.219512195122</v>
       </c>
       <c r="BG10" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="BH10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BI10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>158.2</v>
+        <v>165.6</v>
       </c>
       <c r="BR10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS10" t="n">
         <v>1</v>
       </c>
       <c r="BT10" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS10" t="n">
         <v>8</v>
@@ -4165,10 +4165,10 @@
         <v>3</v>
       </c>
       <c r="CU10" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="CV10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="DA10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DB10" t="n">
-        <v>68.75</v>
+        <v>69.69696969697</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,16 +4198,16 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="DG10" t="n">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DJ10" t="n">
         <v>2164683</v>
@@ -4586,47 +4586,47 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mikael Ellertsson</t>
+          <t>Alexsandro Amorim</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>933203</v>
+        <v>1511706</v>
       </c>
       <c r="E12" t="n">
-        <v>6.6782608695652</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1661</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.6995</v>
+        <v>0.1086</v>
       </c>
       <c r="L12" t="n">
-        <v>1661</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>7.1428571428571</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -4650,76 +4650,74 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1.48479858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
-        <v>641</v>
+        <v>1</v>
       </c>
       <c r="AC12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>33.333333333333</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>26.086956521739</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
@@ -4731,43 +4729,43 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>31.818181818182</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>46.666666666667</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BE12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>34.48275862069</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="BH12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
         <v>0</v>
@@ -4776,55 +4774,55 @@
         <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>153.6</v>
+        <v>0</v>
       </c>
       <c r="BR12" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY12" t="n">
         <v>0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="CC12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4842,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
@@ -4866,19 +4864,19 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="CU12" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4890,13 +4888,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="DA12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>54.166666666667</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4908,19 +4906,19 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="DG12" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
       </c>
       <c r="DI12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DJ12" t="n">
-        <v>2164665</v>
+        <v>2676893</v>
       </c>
       <c r="DK12" t="inlineStr">
         <is>
@@ -4942,341 +4940,341 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Patrizio Masini</t>
+          <t>Mikael Ellertsson</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>970998</v>
+        <v>933203</v>
       </c>
       <c r="E13" t="n">
-        <v>6.7428571428571</v>
+        <v>6.6791666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>1089</v>
+        <v>1751</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1.2655</v>
+        <v>1.715</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1751</v>
       </c>
       <c r="M13" t="n">
+        <v>15</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6.6666666666667</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.53242228</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>686</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD13" t="n">
         <v>12</v>
       </c>
-      <c r="N13" t="n">
-        <v>3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.26065195</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>727</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
       <c r="AE13" t="n">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="AF13" t="n">
-        <v>73.853211009174</v>
+        <v>77.30870712401099</v>
       </c>
       <c r="AG13" t="n">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="AH13" t="n">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="AI13" t="n">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="AJ13" t="n">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AL13" t="n">
-        <v>38.461538461538</v>
+        <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AN13" t="n">
-        <v>18.181818181818</v>
+        <v>26.086956521739</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AS13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT13" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AU13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>31.818181818182</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>46.428571428571</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>55</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>50.45871559633</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>32.258064516129</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>181</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>24</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>31</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>24</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>86</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
         <v>4</v>
       </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>12</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD13" t="n">
         <v>2</v>
       </c>
-      <c r="AZ13" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>107</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>55.154639175258</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>92</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>63.013698630137</v>
-      </c>
-      <c r="BE13" t="n">
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>28</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>12</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>22</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>23</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>75</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>21</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>25</v>
+      </c>
+      <c r="DA13" t="n">
         <v>15</v>
       </c>
-      <c r="BF13" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>166</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>29</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>34</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
+      <c r="DB13" t="n">
+        <v>57.692307692308</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>139</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>240</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI13" t="n">
         <v>4</v>
       </c>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>18</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>21</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>114</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>5</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>5</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>7</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>13</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>18</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>9</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>17</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>7</v>
-      </c>
-      <c r="CS13" t="n">
-        <v>6</v>
-      </c>
-      <c r="CT13" t="n">
-        <v>11</v>
-      </c>
-      <c r="CU13" t="n">
-        <v>87</v>
-      </c>
-      <c r="CV13" t="n">
-        <v>33</v>
-      </c>
-      <c r="CW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ13" t="n">
-        <v>39</v>
-      </c>
-      <c r="DA13" t="n">
-        <v>35</v>
-      </c>
-      <c r="DB13" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="DC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF13" t="n">
-        <v>199</v>
-      </c>
-      <c r="DG13" t="n">
-        <v>237</v>
-      </c>
-      <c r="DH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI13" t="n">
-        <v>6</v>
-      </c>
       <c r="DJ13" t="n">
-        <v>2164699</v>
+        <v>2164665</v>
       </c>
       <c r="DK13" t="inlineStr">
         <is>
@@ -5298,23 +5296,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Johan Vásquez</t>
+          <t>Patrizio Masini</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>889785</v>
+        <v>970998</v>
       </c>
       <c r="E14" t="n">
-        <v>6.6791666666667</v>
+        <v>6.7428571428571</v>
       </c>
       <c r="F14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>2143</v>
+        <v>1089</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5323,16 +5321,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7497</v>
+        <v>1.2655</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -5365,70 +5363,70 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.42402792</v>
+        <v>0.26065195</v>
       </c>
       <c r="AB14" t="n">
-        <v>1639</v>
+        <v>727</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>1098</v>
+        <v>322</v>
       </c>
       <c r="AF14" t="n">
-        <v>84.722222222222</v>
+        <v>73.853211009174</v>
       </c>
       <c r="AG14" t="n">
-        <v>1296</v>
+        <v>436</v>
       </c>
       <c r="AH14" t="n">
-        <v>792</v>
+        <v>155</v>
       </c>
       <c r="AI14" t="n">
-        <v>306</v>
+        <v>167</v>
       </c>
       <c r="AJ14" t="n">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="AK14" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>41.988950276243</v>
+        <v>38.461538461538</v>
       </c>
       <c r="AM14" t="n">
         <v>2</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>18.181818181818</v>
       </c>
       <c r="AO14" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AP14" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AR14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -5437,178 +5435,178 @@
         <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX14" t="n">
         <v>0</v>
       </c>
       <c r="AY14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>107</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>55.154639175258</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>92</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>63.013698630137</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>166</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>29</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>34</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
         <v>4</v>
       </c>
-      <c r="AZ14" t="n">
-        <v>36.363636363636</v>
-      </c>
-      <c r="BA14" t="n">
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>18</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>21</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
         <v>114</v>
       </c>
-      <c r="BB14" t="n">
-        <v>55.339805825243</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>68</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>62.962962962963</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>46</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>46.938775510204</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>236</v>
-      </c>
-      <c r="BH14" t="n">
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>7</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>13</v>
+      </c>
+      <c r="CC14" t="n">
         <v>18</v>
       </c>
-      <c r="BI14" t="n">
-        <v>30</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>37</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>160.3</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>24</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>198</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="CA14" t="n">
+      <c r="CD14" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>17</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>7</v>
+      </c>
+      <c r="CS14" t="n">
         <v>6</v>
       </c>
-      <c r="CB14" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>88</v>
-      </c>
-      <c r="CD14" t="n">
+      <c r="CT14" t="n">
+        <v>11</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>87</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>33</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" t="n">
         <v>39</v>
       </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR14" t="n">
-        <v>4</v>
-      </c>
-      <c r="CS14" t="n">
-        <v>11</v>
-      </c>
-      <c r="CT14" t="n">
-        <v>5</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>92</v>
-      </c>
-      <c r="CV14" t="n">
-        <v>52</v>
-      </c>
-      <c r="CW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ14" t="n">
-        <v>181</v>
-      </c>
       <c r="DA14" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="DB14" t="n">
-        <v>62.857142857143</v>
+        <v>62.5</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5620,19 +5618,19 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>851</v>
+        <v>199</v>
       </c>
       <c r="DG14" t="n">
-        <v>445</v>
+        <v>237</v>
       </c>
       <c r="DH14" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="DJ14" t="n">
-        <v>2164697</v>
+        <v>2164699</v>
       </c>
       <c r="DK14" t="inlineStr">
         <is>
@@ -5654,137 +5652,137 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Leo Østigård</t>
+          <t>Johan Vásquez</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>879746</v>
+        <v>889785</v>
       </c>
       <c r="E15" t="n">
-        <v>7.0777777777778</v>
+        <v>6.716</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H15" t="n">
-        <v>1543</v>
+        <v>2233</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8841</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>20</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.51163602</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1739</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1167</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>84.872727272727</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1375</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>843</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>324</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>132</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>77</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41.621621621622</v>
+      </c>
+      <c r="AM15" t="n">
         <v>3</v>
       </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.8463</v>
-      </c>
-      <c r="L15" t="n">
-        <v>385.75</v>
-      </c>
-      <c r="M15" t="n">
-        <v>15</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>26.666666666667</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
+      <c r="AN15" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>2</v>
       </c>
-      <c r="W15" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.57650838</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1229</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>866</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>88.277268093782</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>981</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>661</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>205</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>52</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>53</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>49.074074074074</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>1</v>
-      </c>
       <c r="AR15" t="n">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="AU15" t="n">
         <v>4</v>
@@ -5796,125 +5794,125 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ15" t="n">
-        <v>100</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BA15" t="n">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="BB15" t="n">
-        <v>60.544217687075</v>
+        <v>55.909090909091</v>
       </c>
       <c r="BC15" t="n">
+        <v>70</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>63.063063063063</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>48.623853211009</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>247</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI15" t="n">
         <v>31</v>
       </c>
-      <c r="BD15" t="n">
-        <v>55.357142857143</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>58</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>63.736263736264</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>122</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>26</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>8</v>
-      </c>
       <c r="BJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK15" t="n">
         <v>2</v>
       </c>
-      <c r="BK15" t="n">
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>37</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>25</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>208</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>11</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>14</v>
+      </c>
+      <c r="CA15" t="n">
         <v>6</v>
       </c>
-      <c r="BL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN15" t="n">
+      <c r="CB15" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>93</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>40</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="CK15" t="n">
         <v>3</v>
       </c>
-      <c r="BO15" t="n">
-        <v>27</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>18</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>115</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>15</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>67</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>27</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>25</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>2</v>
-      </c>
       <c r="CL15" t="n">
         <v>0</v>
       </c>
@@ -5934,19 +5932,19 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS15" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="CT15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CU15" t="n">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="CV15" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -5958,13 +5956,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="DA15" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="DB15" t="n">
-        <v>62.5</v>
+        <v>63.888888888889</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5976,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>693</v>
+        <v>906</v>
       </c>
       <c r="DG15" t="n">
-        <v>288</v>
+        <v>469</v>
       </c>
       <c r="DH15" t="n">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="DI15" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="DJ15" t="n">
-        <v>2198287</v>
+        <v>2164697</v>
       </c>
       <c r="DK15" t="inlineStr">
         <is>
@@ -6017,16 +6015,16 @@
         <v>1087514</v>
       </c>
       <c r="E16" t="n">
-        <v>6.7681818181818</v>
+        <v>6.795652173913</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" t="n">
-        <v>1920</v>
+        <v>1992</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6035,22 +6033,22 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1.2089</v>
+        <v>1.3071</v>
       </c>
       <c r="L16" t="n">
-        <v>1920</v>
+        <v>1992</v>
       </c>
       <c r="M16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
         <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>10</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -6083,58 +6081,58 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.53361217</v>
+        <v>1.68657417</v>
       </c>
       <c r="AB16" t="n">
-        <v>1127</v>
+        <v>1189</v>
       </c>
       <c r="AC16" t="n">
         <v>2</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="AF16" t="n">
-        <v>80.906148867314</v>
+        <v>80.95238095238101</v>
       </c>
       <c r="AG16" t="n">
-        <v>618</v>
+        <v>651</v>
       </c>
       <c r="AH16" t="n">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI16" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="AJ16" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AK16" t="n">
         <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>52</v>
+        <v>49.056603773585</v>
       </c>
       <c r="AM16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AN16" t="n">
-        <v>19.69696969697</v>
+        <v>23.611111111111</v>
       </c>
       <c r="AO16" t="n">
         <v>10</v>
       </c>
       <c r="AP16" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AQ16" t="n">
         <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AS16" t="n">
         <v>7</v>
@@ -6161,28 +6159,28 @@
         <v>58</v>
       </c>
       <c r="BA16" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="BB16" t="n">
-        <v>48.087431693989</v>
+        <v>47.916666666667</v>
       </c>
       <c r="BC16" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="BD16" t="n">
-        <v>52.083333333333</v>
+        <v>51.973684210526</v>
       </c>
       <c r="BE16" t="n">
         <v>13</v>
       </c>
       <c r="BF16" t="n">
-        <v>33.333333333333</v>
+        <v>32.5</v>
       </c>
       <c r="BG16" t="n">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="BH16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BI16" t="n">
         <v>11</v>
@@ -6209,16 +6207,16 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>148.9</v>
+        <v>156.3</v>
       </c>
       <c r="BR16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS16" t="n">
         <v>2</v>
       </c>
       <c r="BT16" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6236,19 +6234,19 @@
         <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CA16" t="n">
         <v>4</v>
       </c>
       <c r="CB16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CC16" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CD16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6290,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CS16" t="n">
         <v>50</v>
       </c>
       <c r="CT16" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="CU16" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="CV16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6314,13 +6312,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="DA16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="DB16" t="n">
-        <v>71.428571428571</v>
+        <v>69.230769230769</v>
       </c>
       <c r="DC16" t="n">
         <v>1</v>
@@ -6332,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="DG16" t="n">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6373,16 +6371,16 @@
         <v>797286</v>
       </c>
       <c r="E17" t="n">
-        <v>7.01</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" t="n">
         <v>21</v>
       </c>
       <c r="H17" t="n">
-        <v>1678</v>
+        <v>1696</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -6394,7 +6392,7 @@
         <v>0.3583</v>
       </c>
       <c r="L17" t="n">
-        <v>1678</v>
+        <v>1696</v>
       </c>
       <c r="M17" t="n">
         <v>6</v>
@@ -6439,10 +6437,10 @@
         <v>4</v>
       </c>
       <c r="AA17" t="n">
-        <v>4.4381933</v>
+        <v>4.4785481</v>
       </c>
       <c r="AB17" t="n">
-        <v>1102</v>
+        <v>1120</v>
       </c>
       <c r="AC17" t="n">
         <v>8</v>
@@ -6451,34 +6449,34 @@
         <v>54</v>
       </c>
       <c r="AE17" t="n">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AF17" t="n">
-        <v>78.964941569282</v>
+        <v>78.782894736842</v>
       </c>
       <c r="AG17" t="n">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="AH17" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AI17" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AJ17" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK17" t="n">
         <v>30</v>
       </c>
       <c r="AL17" t="n">
-        <v>31.914893617021</v>
+        <v>30.927835051546</v>
       </c>
       <c r="AM17" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN17" t="n">
-        <v>36.486486486486</v>
+        <v>36.184210526316</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
@@ -6517,31 +6515,31 @@
         <v>52.380952380952</v>
       </c>
       <c r="BA17" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BB17" t="n">
-        <v>50.37037037037</v>
+        <v>51.094890510949</v>
       </c>
       <c r="BC17" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BD17" t="n">
-        <v>56.25</v>
+        <v>56.637168141593</v>
       </c>
       <c r="BE17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF17" t="n">
-        <v>21.739130434783</v>
+        <v>25</v>
       </c>
       <c r="BG17" t="n">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="BH17" t="n">
         <v>25</v>
       </c>
       <c r="BI17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
@@ -6565,16 +6563,16 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>140.2</v>
+        <v>147</v>
       </c>
       <c r="BR17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS17" t="n">
         <v>5</v>
       </c>
       <c r="BT17" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6601,7 +6599,7 @@
         <v>12</v>
       </c>
       <c r="CC17" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="CD17" t="n">
         <v>21</v>
@@ -6652,7 +6650,7 @@
         <v>21</v>
       </c>
       <c r="CT17" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="CU17" t="n">
         <v>67</v>
@@ -6670,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="DA17" t="n">
         <v>22</v>
@@ -6688,10 +6686,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="DG17" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -7437,16 +7435,16 @@
         <v>1068885</v>
       </c>
       <c r="E20" t="n">
-        <v>6.5555555555556</v>
+        <v>6.5894736842105</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" t="n">
-        <v>1361</v>
+        <v>1451</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7503,10 +7501,10 @@
         <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.38254823</v>
+        <v>0.40374813</v>
       </c>
       <c r="AB20" t="n">
-        <v>718</v>
+        <v>803</v>
       </c>
       <c r="AC20" t="n">
         <v>1</v>
@@ -7515,28 +7513,28 @@
         <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>436</v>
+        <v>499</v>
       </c>
       <c r="AF20" t="n">
-        <v>81.04089219330901</v>
+        <v>81.803278688525</v>
       </c>
       <c r="AG20" t="n">
-        <v>538</v>
+        <v>610</v>
       </c>
       <c r="AH20" t="n">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="AI20" t="n">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL20" t="n">
-        <v>35.483870967742</v>
+        <v>36.923076923077</v>
       </c>
       <c r="AM20" t="n">
         <v>2</v>
@@ -7545,10 +7543,10 @@
         <v>33.333333333333</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ20" t="n">
         <v>2</v>
@@ -7560,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -7581,28 +7579,28 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA20" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="BB20" t="n">
-        <v>58.823529411765</v>
+        <v>58.064516129032</v>
       </c>
       <c r="BC20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
-        <v>52.272727272727</v>
+        <v>52.173913043478</v>
       </c>
       <c r="BE20" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BF20" t="n">
-        <v>65.853658536585</v>
+        <v>63.829787234043</v>
       </c>
       <c r="BG20" t="n">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="BH20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI20" t="n">
         <v>8</v>
@@ -7620,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO20" t="n">
         <v>22</v>
@@ -7629,16 +7627,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>118</v>
+        <v>125.2</v>
       </c>
       <c r="BR20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS20" t="n">
         <v>2</v>
       </c>
       <c r="BT20" t="n">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7665,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="CC20" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="CD20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7719,10 +7717,10 @@
         <v>6</v>
       </c>
       <c r="CU20" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="CV20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7734,13 +7732,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="DA20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DB20" t="n">
-        <v>76.92307692307701</v>
+        <v>78.571428571429</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7752,16 +7750,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="DG20" t="n">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
       </c>
       <c r="DI20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DJ20" t="n">
         <v>2164689</v>
@@ -8149,16 +8147,16 @@
         <v>556696</v>
       </c>
       <c r="E22" t="n">
-        <v>6.3333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8213,10 +8211,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02678624</v>
+        <v>0.02724923</v>
       </c>
       <c r="AB22" t="n">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8225,28 +8223,28 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="AF22" t="n">
-        <v>75.39682539682499</v>
+        <v>77.027027027027</v>
       </c>
       <c r="AG22" t="n">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AH22" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>35.416666666667</v>
+        <v>35.849056603774</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8264,13 +8262,13 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -8309,7 +8307,7 @@
         <v>100</v>
       </c>
       <c r="BG22" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BH22" t="n">
         <v>0</v>
@@ -8327,10 +8325,10 @@
         <v>0</v>
       </c>
       <c r="BM22" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BN22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO22" t="n">
         <v>8</v>
@@ -8339,16 +8337,16 @@
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="BR22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8390,10 +8388,10 @@
         <v>3</v>
       </c>
       <c r="CH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI22" t="n">
         <v>3</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>2</v>
       </c>
       <c r="CJ22" t="n">
         <v>6</v>
@@ -8402,7 +8400,7 @@
         <v>2</v>
       </c>
       <c r="CL22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM22" t="n">
         <v>2</v>
@@ -8444,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="DA22" t="n">
         <v>0</v>
@@ -8456,19 +8454,19 @@
         <v>0</v>
       </c>
       <c r="DD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE22" t="n">
         <v>1</v>
       </c>
       <c r="DF22" t="n">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="DG22" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="DH22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DI22" t="n">
         <v>0</v>
@@ -8482,7 +8480,7 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>-3.0209</v>
+        <v>-0.1702</v>
       </c>
     </row>
     <row r="23">
